--- a/biology/Botanique/Magnolia_carsonii/Magnolia_carsonii.xlsx
+++ b/biology/Botanique/Magnolia_carsonii/Magnolia_carsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia carsonii est une espèce d'arbres de la famille des Magnoliacées vivant en Asie du Sud-Est.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Thaïlande, en Malaisie (provinces de Sabah et Sarawak à Bornéo) et en Indonésie (îles de Sulawesi et Sumatra). Elle pousse entre 1 400 et 2 900 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Thaïlande, en Malaisie (provinces de Sabah et Sarawak à Bornéo) et en Indonésie (îles de Sulawesi et Sumatra). Elle pousse entre 1 400 et 2 900 m d'altitude.
 </t>
         </is>
       </c>
@@ -568,16 +584,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 décembre 2013) :
 Magnolia carsonii Dandy ex Noot. (1987)
 variété Magnolia carsonii var. carsonii
 variété Magnolia carsonii var. drymifolia Noot. (1987)
 variété Magnolia carsonii var. phaulanta (Dandy ex Noot.) S.Kim &amp; Noot. (2002)
-Selon The Plant List            (31 décembre 2013)[4] :
+Selon The Plant List            (31 décembre 2013) :
 variété Magnolia carsonii var. phaulanta (Dandy ex Noot.) S.Kim &amp; Noot.
-Selon Tropicos                                           (31 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Magnolia carsonii var. carsonii
 variété Magnolia carsonii var. drymifolia Noot.
 variété Magnolia carsonii var. phaulanta (Dandy ex Noot.) S.Kim &amp; Noot.</t>
